--- a/biology/Histoire de la zoologie et de la botanique/Karl_Klaus/Karl_Klaus.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Karl_Klaus/Karl_Klaus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl Ernst Claus (parfois appelé Karl Klaus ou Carl Claus, russe : Карл Ка́рлович Кла́ус, né et mort (23 janvier 1796 – 24 mars 1864) à Dorpat (aujourd'hui Tartu), gouvernement d'Estonie, Empire russe, est un chimiste et naturaliste allemand sujet de l'Empire russe.
 </t>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est surtout connu pour avoir découvert et isolé le ruthénium en 1844.
 Karl Claus fut professeur à l'université impériale de Kazan et membre de l'Académie des sciences de Russie.
